--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3699.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3699.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3699</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Isuru Udana Tillakaratna</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>24/07/2012</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/07/2012</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1223,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1571,7 +1633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1593,7 +1655,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1630,7 +1692,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1667,7 +1729,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1704,7 +1766,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1741,7 +1803,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1778,7 +1840,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1815,7 +1877,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1852,7 +1914,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1889,7 +1951,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1926,7 +1988,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1963,7 +2025,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2037,7 +2099,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2074,7 +2136,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2111,7 +2173,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4357</t>
+          <t>4357</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2148,7 +2210,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4375</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2185,7 +2247,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2222,7 +2284,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2259,7 +2321,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2296,7 +2358,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4463</t>
+          <t>4463</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2333,7 +2395,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4464</t>
+          <t>4464</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2370,7 +2432,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4480</t>
+          <t>4480</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2396,6 +2458,563 @@
       <c r="G22" t="inlineStr">
         <is>
           <t>0/27</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4271</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14.22%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.05%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3699.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3699.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,9 +2522,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2549,7 +2547,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2562,15 +2559,514 @@
           <t>4271</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14.22%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.24%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4357</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4375</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4480</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3.05%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3433</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4271</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2578,29 +3074,12 @@
           <t>4272</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14.22%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2610,13 +3089,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2624,25 +3096,12 @@
           <t>4305</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2650,27 +3109,14 @@
           <t>4309</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.98%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2680,27 +3126,14 @@
           <t>4322</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>9</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.24%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2710,27 +3143,14 @@
           <t>4331</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.59%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2740,29 +3160,12 @@
           <t>4339</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.37%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2770,29 +3173,12 @@
           <t>4344</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.89%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2800,27 +3186,14 @@
           <t>4350</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2832,13 +3205,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2846,27 +3212,14 @@
           <t>4375</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2876,23 +3229,14 @@
           <t>4413</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2904,13 +3248,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2918,27 +3255,14 @@
           <t>4417</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>9</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2948,29 +3272,12 @@
           <t>4463</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>9.38%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2980,13 +3287,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2994,29 +3294,12 @@
           <t>4480</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.05%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3699.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3699.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>24/07/2012</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>28/07/2012</t>
@@ -1224,6 +1224,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>28/07/2019</t>
@@ -2465,843 +2466,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3433</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14.22%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.98%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.24%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.59%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.37%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.89%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>9.38%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.05%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3433</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4357</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4375</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4463</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4464</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4480</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>